--- a/Transport Managment System/TrnVehicleInsurance.xlsx
+++ b/Transport Managment System/TrnVehicleInsurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Table Name -TrnVehicleInsurance</t>
   </si>
@@ -110,13 +110,49 @@
   </si>
   <si>
     <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take ImagePath as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get VehicleRegistrationId  (TrnVehicleRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Take InsuranceAmount as Decimal</t>
+  </si>
+  <si>
+    <t>Take InsuranceNumber as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get InsuranceCompanyNameId  (MstInsuranceCompany) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take InsuranceType as int 1 ,2 only </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +167,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,20 +221,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +550,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,266 +559,292 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Transport Managment System/TrnVehicleInsurance.xlsx
+++ b/Transport Managment System/TrnVehicleInsurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Table Name -TrnVehicleInsurance</t>
   </si>
@@ -146,13 +146,16 @@
   </si>
   <si>
     <t xml:space="preserve">Take InsuranceType as int 1 ,2 only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +175,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -194,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,11 +228,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,12 +277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -243,6 +285,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,32 +620,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -626,7 +683,7 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -634,7 +691,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -644,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -652,7 +709,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -662,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -670,7 +727,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -680,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -698,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -716,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -734,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -752,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -770,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -788,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -806,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -824,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -842,14 +899,25 @@
         <v>13</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transport Managment System/TrnVehicleInsurance.xlsx
+++ b/Transport Managment System/TrnVehicleInsurance.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -TrnVehicleInsurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : नाये Vehicle Insurance को रजिस्टर्ड किया जाता है|
+</t>
   </si>
 </sst>
 </file>
@@ -607,7 +608,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +632,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -649,22 +650,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,19 +673,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -692,17 +693,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,17 +711,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,17 +729,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,17 +747,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,17 +765,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,17 +783,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,17 +801,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,17 +819,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,17 +837,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,17 +855,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,17 +873,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,22 +891,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
